--- a/PM_imp.xlsx
+++ b/PM_imp.xlsx
@@ -29,550 +29,550 @@
     <t xml:space="preserve">1-monostearin</t>
   </si>
   <si>
+    <t xml:space="preserve">quinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xylose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxamic acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-hexadecanol</t>
   </si>
   <si>
-    <t xml:space="preserve">xylose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quinic acid</t>
+    <t xml:space="preserve">kynurenic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxyhippuric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xylitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levoglucosan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylornithine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipecolinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-aminoisobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indole-3-propionic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linoleic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycerol-3-galactoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acetophenone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucose-1-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,6-anhydro-D-galactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-hydroxyvaleric acid</t>
   </si>
   <si>
     <t xml:space="preserve">glutaric acid</t>
   </si>
   <si>
-    <t xml:space="preserve">pipecolinic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kynurenic acid</t>
+    <t xml:space="preserve">uridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xylulose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-deoxytetronic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxybutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-glycerolphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sophorose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucuronic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taurine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glyceric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indole-3-lactate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycerol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxybenzoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mannitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gluconic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saccharic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citrulline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-hydroxy-3-methylglutaric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maltose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maleic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isomaltose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conduritol-beta-epoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmitoleic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tartaric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-aminobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantothenic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-(4-hydroxyphenyl)propionic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-carbamoylaspartate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-aminobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fructose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piperidone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citramalic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,4-dihydroxycinnamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-methylgalactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrophosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentadecanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5-dihydroxypyrazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adipic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucose-6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inosine 5'-monophosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galacturonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shikimic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-acetyl-d-hexosamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ornithine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylputrescine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enolpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lauric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycerol-alpha-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myo-inositol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypoxanthine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoethanolamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cholesterol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lignoceric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aconitic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxoproline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thymine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benzoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asparagine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dithiothreitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cystine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phthalic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methionine sulfoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allantoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gluconic acid lactone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xanthine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indole-3-acetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myristic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenosine-5-monophosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adenine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-picolinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-hydroxyhexanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-deoxypentitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellobiose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-monoheptadecanoyl glyceride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hippuric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycolic acid</t>
   </si>
   <si>
     <t xml:space="preserve">N-acetylmannosamine</t>
   </si>
   <si>
-    <t xml:space="preserve">methionine sulfoxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levoglucosan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lactose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycerol-3-galactoside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xylitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xanthine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taurine</t>
+    <t xml:space="preserve">octadecanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">montanic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trehalose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">succinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phenyllactic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isopropylbenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galactonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phosphoglycerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspartic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactulose</t>
   </si>
   <si>
     <t xml:space="preserve">sorbitol</t>
   </si>
   <si>
-    <t xml:space="preserve">saccharic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribonic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinitol</t>
+    <t xml:space="preserve">palmitic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erythritol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-monopalmitin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aminomalonate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo uridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dodecanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lyxitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fructose-6-phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isocitric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-acetylaspartic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-piperidinobenzonitrile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyano-l-alanine</t>
   </si>
   <si>
     <t xml:space="preserve">phenylalanine</t>
   </si>
   <si>
-    <t xml:space="preserve">pentadecanoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantothenic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxamic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-carbamoylaspartate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-acetylornithine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n-acetyl-d-hexosamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linoleic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lactulose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isopropylbenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indole-3-lactate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycerol-alpha-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glyceric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glucuronic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galactonic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fructose-6-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cystine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adipic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-hydroxyhippuric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-aminobutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-phosphoglycerate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-phenyllactic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-aminoisobutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xylulose</t>
+    <t xml:space="preserve">2-hydroxyglutaric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maleimide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagatose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fumaric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-ketoisocaproic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-aminovaleric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uracil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isothreonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactamide...94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guanidinosuccinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-ketoglutarate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-aminoadipic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-hydroxybutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heptadecanoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orotic acid</t>
   </si>
   <si>
     <t xml:space="preserve">valine</t>
   </si>
   <si>
-    <t xml:space="preserve">uridine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uracil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tyrosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tryptophan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trehalose</t>
+    <t xml:space="preserve">glutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citraconic acid</t>
   </si>
   <si>
     <t xml:space="preserve">trans-4-hydroxyproline</t>
   </si>
   <si>
-    <t xml:space="preserve">thymine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threonine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threonic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tartaric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tagatose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucrose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">succinic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stearic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sophorose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shikimic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serine</t>
+    <t xml:space="preserve">hydroxycarbamate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactamide...95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphate</t>
   </si>
   <si>
     <t xml:space="preserve">ribose</t>
   </si>
   <si>
-    <t xml:space="preserve">ribitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvic acid</t>
+    <t xml:space="preserve">nicotinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4-diaminobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxalic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parabanic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creatine</t>
   </si>
   <si>
     <t xml:space="preserve">pyrrole-2-carboxylic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">pyrophosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo uridine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piperidone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phthalic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphoethanolamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parabanic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmitoleic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmitic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxoproline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxalic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orotic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ornithine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">octadecanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicotinic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-acetylputrescine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-acetylaspartic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myristic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myo-inositol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">montanic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methionine</t>
-  </si>
-  <si>
     <t xml:space="preserve">mannose</t>
   </si>
   <si>
-    <t xml:space="preserve">mannitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maltose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maleimide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maleic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyxitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lysine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lignoceric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leucine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lauric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lactic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lactamide...94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lactamide...95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isothreonic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isomaltose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoleucine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isocitric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inosine 5'-monophosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indole-3-propionic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indole-3-acetate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hypoxanthine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydroxycarbamate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hippuric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heptadecanoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guanidinosuccinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycolic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycerol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glutamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glutamic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glucose-6-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glucose-1-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gluconic acid lactone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gluconic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galacturonic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galactose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fumaric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fructose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enolpyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dodecanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dithiothreitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysteine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyano-l-alanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creatine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conduritol-beta-epoxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citrulline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citramalic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citraconic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellobiose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-glycerolphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-alanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">benzoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspartic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asparagine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aminomalonate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha-ketoglutarate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha-aminoadipic acid</t>
-  </si>
-  <si>
     <t xml:space="preserve">alloxanoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allantoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenosine-5-monophosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adenine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aconitic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acetophenone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-aminovaleric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-hydroxybutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-hydroxybenzoate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-hydroxybutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-hydroxy-3-methylglutaric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,6-anhydro-D-galactose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,4-dihydroxycinnamic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-(4-hydroxyphenyl)propionic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-piperidinobenzonitrile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-picolinic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-ketoisocaproic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-hydroxyvaleric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-hydroxyhexanoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-hydroxyglutaric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-deoxytetronic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-deoxypentitol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-aminobutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,5-dihydroxypyrazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4-diaminobutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-monopalmitin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-monoheptadecanoyl glyceride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-methylgalactose</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>970</v>
       </c>
       <c r="C2" t="n">
         <v>6269.51089185155</v>
@@ -937,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>912</v>
       </c>
       <c r="C3" t="n">
-        <v>5635.76383331659</v>
+        <v>5635.90977623094</v>
       </c>
       <c r="D3" t="n">
-        <v>15.521981256864</v>
+        <v>17.5615241648647</v>
       </c>
     </row>
     <row r="4">
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>864</v>
       </c>
       <c r="C4" t="n">
         <v>5602.31490634425</v>
@@ -965,13 +965,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>826</v>
       </c>
       <c r="C5" t="n">
-        <v>5635.90977623094</v>
+        <v>6425.92581724158</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5615241648647</v>
+        <v>28.4277189728979</v>
       </c>
     </row>
     <row r="6">
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>749</v>
       </c>
       <c r="C6" t="n">
-        <v>5843.4927399635</v>
+        <v>5635.76383331659</v>
       </c>
       <c r="D6" t="n">
-        <v>15.7993924124262</v>
+        <v>15.521981256864</v>
       </c>
     </row>
     <row r="7">
@@ -993,13 +993,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>692</v>
       </c>
       <c r="C7" t="n">
-        <v>5079.15186931186</v>
+        <v>5591.50067902254</v>
       </c>
       <c r="D7" t="n">
-        <v>5.03874587251419</v>
+        <v>14.1817287533587</v>
       </c>
     </row>
     <row r="8">
@@ -1007,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>682</v>
       </c>
       <c r="C8" t="n">
-        <v>5591.50067902254</v>
+        <v>5091.01202846528</v>
       </c>
       <c r="D8" t="n">
-        <v>14.1817287533587</v>
+        <v>3.0215111996729</v>
       </c>
     </row>
     <row r="9">
@@ -1021,13 +1021,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>658</v>
       </c>
       <c r="C9" t="n">
-        <v>4910.29859998473</v>
+        <v>5480.23187917243</v>
       </c>
       <c r="D9" t="n">
-        <v>1.17759504120607</v>
+        <v>13.612765974356</v>
       </c>
     </row>
     <row r="10">
@@ -1035,13 +1035,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>638</v>
       </c>
       <c r="C10" t="n">
-        <v>5098.74902740985</v>
+        <v>6566.9542754887</v>
       </c>
       <c r="D10" t="n">
-        <v>5.17764083466907</v>
+        <v>62.9663638262334</v>
       </c>
     </row>
     <row r="11">
@@ -1049,13 +1049,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>619</v>
       </c>
       <c r="C11" t="n">
-        <v>6566.9542754887</v>
+        <v>5806.06080529213</v>
       </c>
       <c r="D11" t="n">
-        <v>62.9663638262334</v>
+        <v>19.6252124430147</v>
       </c>
     </row>
     <row r="12">
@@ -1063,13 +1063,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>605</v>
       </c>
       <c r="C12" t="n">
-        <v>5930.73147744961</v>
+        <v>5079.15186931186</v>
       </c>
       <c r="D12" t="n">
-        <v>25.5361529588769</v>
+        <v>5.03874587251419</v>
       </c>
     </row>
     <row r="13">
@@ -1077,13 +1077,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>572</v>
       </c>
       <c r="C13" t="n">
-        <v>5610.00975340064</v>
+        <v>5303.49611280873</v>
       </c>
       <c r="D13" t="n">
-        <v>9.0403720327978</v>
+        <v>7.16401843917088</v>
       </c>
     </row>
     <row r="14">
@@ -1091,13 +1091,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>559</v>
       </c>
       <c r="C14" t="n">
-        <v>5214.13360688384</v>
+        <v>5235.65271966257</v>
       </c>
       <c r="D14" t="n">
-        <v>2.90020792455653</v>
+        <v>6.1020624774065</v>
       </c>
     </row>
     <row r="15">
@@ -1105,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="C15" t="n">
-        <v>5480.23187917243</v>
+        <v>5930.73147744961</v>
       </c>
       <c r="D15" t="n">
-        <v>13.612765974356</v>
+        <v>25.5361529588769</v>
       </c>
     </row>
     <row r="16">
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="C16" t="n">
-        <v>4902.96305453738</v>
+        <v>5411.98016097549</v>
       </c>
       <c r="D16" t="n">
-        <v>1.32227853449587</v>
+        <v>8.10737779729208</v>
       </c>
     </row>
     <row r="17">
@@ -1133,13 +1133,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>532</v>
       </c>
       <c r="C17" t="n">
-        <v>4974.02485364719</v>
+        <v>5043.05143860992</v>
       </c>
       <c r="D17" t="n">
-        <v>1.41712608357793</v>
+        <v>6.9961333418566</v>
       </c>
     </row>
     <row r="18">
@@ -1147,13 +1147,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>529</v>
       </c>
       <c r="C18" t="n">
-        <v>5348.64699461965</v>
+        <v>5214.13360688384</v>
       </c>
       <c r="D18" t="n">
-        <v>14.6967972606922</v>
+        <v>2.90020792455653</v>
       </c>
     </row>
     <row r="19">
@@ -1161,13 +1161,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>528</v>
       </c>
       <c r="C19" t="n">
-        <v>5004.03148485907</v>
+        <v>5237.91754606573</v>
       </c>
       <c r="D19" t="n">
-        <v>1.95433288245854</v>
+        <v>3.27330914576355</v>
       </c>
     </row>
     <row r="20">
@@ -1175,13 +1175,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="C20" t="n">
-        <v>4715.22882530252</v>
+        <v>5590.04808896789</v>
       </c>
       <c r="D20" t="n">
-        <v>1.26923910114968</v>
+        <v>14.0810529034814</v>
       </c>
     </row>
     <row r="21">
@@ -1189,13 +1189,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="C21" t="n">
-        <v>5289.00960318181</v>
+        <v>6032.22064532053</v>
       </c>
       <c r="D21" t="n">
-        <v>6.44859589020715</v>
+        <v>21.3569991610843</v>
       </c>
     </row>
     <row r="22">
@@ -1203,13 +1203,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="C22" t="n">
-        <v>5007.95525672848</v>
+        <v>5101.2421941146</v>
       </c>
       <c r="D22" t="n">
-        <v>3.95551382403834</v>
+        <v>5.17219126604696</v>
       </c>
     </row>
     <row r="23">
@@ -1217,13 +1217,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="C23" t="n">
-        <v>4972.11797926038</v>
+        <v>5843.4927399635</v>
       </c>
       <c r="D23" t="n">
-        <v>1.24651102055022</v>
+        <v>15.7993924124262</v>
       </c>
     </row>
     <row r="24">
@@ -1231,13 +1231,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="C24" t="n">
-        <v>5214.23678662791</v>
+        <v>5910.86278184722</v>
       </c>
       <c r="D24" t="n">
-        <v>6.05180615241981</v>
+        <v>23.9350407442038</v>
       </c>
     </row>
     <row r="25">
@@ -1245,13 +1245,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>488</v>
       </c>
       <c r="C25" t="n">
-        <v>4818.1531794121</v>
+        <v>5417.08676893289</v>
       </c>
       <c r="D25" t="n">
-        <v>3.6094348782755</v>
+        <v>9.18706503867899</v>
       </c>
     </row>
     <row r="26">
@@ -1259,13 +1259,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="C26" t="n">
-        <v>6425.92581724158</v>
+        <v>5289.00960318181</v>
       </c>
       <c r="D26" t="n">
-        <v>28.4277189728979</v>
+        <v>6.44859589020715</v>
       </c>
     </row>
     <row r="27">
@@ -1273,13 +1273,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>469</v>
       </c>
       <c r="C27" t="n">
-        <v>5867.76168289432</v>
+        <v>5240.71394786479</v>
       </c>
       <c r="D27" t="n">
-        <v>11.2744587382206</v>
+        <v>4.94538960808013</v>
       </c>
     </row>
     <row r="28">
@@ -1287,13 +1287,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>461</v>
       </c>
       <c r="C28" t="n">
-        <v>5806.06080529213</v>
+        <v>5610.00975340064</v>
       </c>
       <c r="D28" t="n">
-        <v>19.6252124430147</v>
+        <v>9.0403720327978</v>
       </c>
     </row>
     <row r="29">
@@ -1301,13 +1301,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>451</v>
       </c>
       <c r="C29" t="n">
-        <v>4639.67000391251</v>
+        <v>4974.02485364719</v>
       </c>
       <c r="D29" t="n">
-        <v>1.22608659730195</v>
+        <v>1.41712608357793</v>
       </c>
     </row>
     <row r="30">
@@ -1315,13 +1315,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="C30" t="n">
-        <v>5043.05143860992</v>
+        <v>5160.06558873512</v>
       </c>
       <c r="D30" t="n">
-        <v>6.9961333418566</v>
+        <v>3.68275806747562</v>
       </c>
     </row>
     <row r="31">
@@ -1329,13 +1329,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="C31" t="n">
-        <v>5005.58499750254</v>
+        <v>5066.69960260031</v>
       </c>
       <c r="D31" t="n">
-        <v>2.93927678128282</v>
+        <v>1.76282223684617</v>
       </c>
     </row>
     <row r="32">
@@ -1343,13 +1343,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>409</v>
       </c>
       <c r="C32" t="n">
-        <v>5194.01207867704</v>
+        <v>5493.16490636218</v>
       </c>
       <c r="D32" t="n">
-        <v>2.90067657053471</v>
+        <v>13.8627035282299</v>
       </c>
     </row>
     <row r="33">
@@ -1357,13 +1357,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C33" t="n">
-        <v>4929.15647687696</v>
+        <v>6182.20306981331</v>
       </c>
       <c r="D33" t="n">
-        <v>2.72269028767174</v>
+        <v>16.5115579445328</v>
       </c>
     </row>
     <row r="34">
@@ -1371,13 +1371,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="C34" t="n">
-        <v>5492.10578171807</v>
+        <v>5115.01144819441</v>
       </c>
       <c r="D34" t="n">
-        <v>8.54879670592239</v>
+        <v>4.2721347714884</v>
       </c>
     </row>
     <row r="35">
@@ -1385,13 +1385,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="C35" t="n">
-        <v>5805.18445863006</v>
+        <v>5097.16956541756</v>
       </c>
       <c r="D35" t="n">
-        <v>16.3310879119708</v>
+        <v>7.2331548847052</v>
       </c>
     </row>
     <row r="36">
@@ -1399,13 +1399,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="C36" t="n">
-        <v>5097.16956541756</v>
+        <v>5348.64699461965</v>
       </c>
       <c r="D36" t="n">
-        <v>7.2331548847052</v>
+        <v>14.6967972606922</v>
       </c>
     </row>
     <row r="37">
@@ -1413,13 +1413,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="C37" t="n">
-        <v>4870.48981699513</v>
+        <v>5007.95525672848</v>
       </c>
       <c r="D37" t="n">
-        <v>3.12855447477233</v>
+        <v>3.95551382403834</v>
       </c>
     </row>
     <row r="38">
@@ -1427,13 +1427,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="C38" t="n">
-        <v>5235.65271966257</v>
+        <v>5805.18445863006</v>
       </c>
       <c r="D38" t="n">
-        <v>6.1020624774065</v>
+        <v>16.3310879119708</v>
       </c>
     </row>
     <row r="39">
@@ -1441,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>348</v>
       </c>
       <c r="C39" t="n">
-        <v>5132.98927232818</v>
+        <v>4929.15647687696</v>
       </c>
       <c r="D39" t="n">
-        <v>1.79990176375206</v>
+        <v>2.72269028767174</v>
       </c>
     </row>
     <row r="40">
@@ -1455,13 +1455,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="C40" t="n">
-        <v>5751.90478158848</v>
+        <v>5177.00669253395</v>
       </c>
       <c r="D40" t="n">
-        <v>9.37140347524455</v>
+        <v>3.39474786096209</v>
       </c>
     </row>
     <row r="41">
@@ -1469,13 +1469,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="C41" t="n">
-        <v>4545.70807348221</v>
+        <v>4932.05464622055</v>
       </c>
       <c r="D41" t="n">
-        <v>0.421531887282855</v>
+        <v>1.86799580910316</v>
       </c>
     </row>
     <row r="42">
@@ -1483,13 +1483,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="C42" t="n">
-        <v>5233.59072646066</v>
+        <v>5135.05403659028</v>
       </c>
       <c r="D42" t="n">
-        <v>5.40801546928028</v>
+        <v>8.26016706144941</v>
       </c>
     </row>
     <row r="43">
@@ -1497,13 +1497,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="C43" t="n">
-        <v>5091.01202846528</v>
+        <v>4883.91175204742</v>
       </c>
       <c r="D43" t="n">
-        <v>3.0215111996729</v>
+        <v>3.12144541957183</v>
       </c>
     </row>
     <row r="44">
@@ -1511,13 +1511,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="C44" t="n">
-        <v>5243.29189717379</v>
+        <v>4715.22882530252</v>
       </c>
       <c r="D44" t="n">
-        <v>5.74927666651178</v>
+        <v>1.26923910114968</v>
       </c>
     </row>
     <row r="45">
@@ -1525,13 +1525,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="C45" t="n">
-        <v>4707.88009378744</v>
+        <v>5117.03629097706</v>
       </c>
       <c r="D45" t="n">
-        <v>0.464516411748318</v>
+        <v>2.31058833809822</v>
       </c>
     </row>
     <row r="46">
@@ -1539,13 +1539,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C46" t="n">
-        <v>5233.84528493079</v>
+        <v>4864.75294619969</v>
       </c>
       <c r="D46" t="n">
-        <v>4.94799346540436</v>
+        <v>0.622389902284938</v>
       </c>
     </row>
     <row r="47">
@@ -1553,13 +1553,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="C47" t="n">
-        <v>5303.49611280873</v>
+        <v>5398.35745359963</v>
       </c>
       <c r="D47" t="n">
-        <v>7.16401843917088</v>
+        <v>8.76603123674619</v>
       </c>
     </row>
     <row r="48">
@@ -1567,13 +1567,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="C48" t="n">
-        <v>5160.06558873512</v>
+        <v>4973.51713290226</v>
       </c>
       <c r="D48" t="n">
-        <v>3.68275806747562</v>
+        <v>1.5471398363113</v>
       </c>
     </row>
     <row r="49">
@@ -1581,13 +1581,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C49" t="n">
-        <v>5243.42530751257</v>
+        <v>5822.35318105932</v>
       </c>
       <c r="D49" t="n">
-        <v>4.0416275924057</v>
+        <v>16.2403429640884</v>
       </c>
     </row>
     <row r="50">
@@ -1595,13 +1595,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C50" t="n">
-        <v>5910.86278184722</v>
+        <v>5105.26306244692</v>
       </c>
       <c r="D50" t="n">
-        <v>23.9350407442038</v>
+        <v>2.49912425924763</v>
       </c>
     </row>
     <row r="51">
@@ -1609,13 +1609,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C51" t="n">
-        <v>4676.04968249666</v>
+        <v>4667.42915166341</v>
       </c>
       <c r="D51" t="n">
-        <v>0.842837130470715</v>
+        <v>1.69421227776464</v>
       </c>
     </row>
     <row r="52">
@@ -1623,13 +1623,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="C52" t="n">
-        <v>5080.13127323127</v>
+        <v>4797.61245768074</v>
       </c>
       <c r="D52" t="n">
-        <v>1.66286411611359</v>
+        <v>1.87542256148877</v>
       </c>
     </row>
     <row r="53">
@@ -1637,13 +1637,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="C53" t="n">
-        <v>4925.80330732455</v>
+        <v>5590.20569744426</v>
       </c>
       <c r="D53" t="n">
-        <v>1.60202161841781</v>
+        <v>11.9852210894535</v>
       </c>
     </row>
     <row r="54">
@@ -1651,13 +1651,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="C54" t="n">
-        <v>5076.56629043517</v>
+        <v>4818.1531794121</v>
       </c>
       <c r="D54" t="n">
-        <v>0.632717506284309</v>
+        <v>3.6094348782755</v>
       </c>
     </row>
     <row r="55">
@@ -1665,13 +1665,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="C55" t="n">
-        <v>4857.09132051868</v>
+        <v>4994.47984314684</v>
       </c>
       <c r="D55" t="n">
-        <v>0.664516629132801</v>
+        <v>1.25036738591492</v>
       </c>
     </row>
     <row r="56">
@@ -1679,13 +1679,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="C56" t="n">
-        <v>5109.0931335186</v>
+        <v>5867.76168289432</v>
       </c>
       <c r="D56" t="n">
-        <v>2.1455412209208</v>
+        <v>11.2744587382206</v>
       </c>
     </row>
     <row r="57">
@@ -1693,13 +1693,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="C57" t="n">
-        <v>5210.66320182763</v>
+        <v>5243.29189717379</v>
       </c>
       <c r="D57" t="n">
-        <v>3.71643066167306</v>
+        <v>5.74927666651178</v>
       </c>
     </row>
     <row r="58">
@@ -1707,13 +1707,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="C58" t="n">
-        <v>5189.04633973761</v>
+        <v>5210.7994921764</v>
       </c>
       <c r="D58" t="n">
-        <v>4.01465380897805</v>
+        <v>3.00828141533142</v>
       </c>
     </row>
     <row r="59">
@@ -1721,13 +1721,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="C59" t="n">
-        <v>5261.51742704296</v>
+        <v>5189.04633973761</v>
       </c>
       <c r="D59" t="n">
-        <v>2.17347124318623</v>
+        <v>4.01465380897805</v>
       </c>
     </row>
     <row r="60">
@@ -1735,13 +1735,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="C60" t="n">
-        <v>4834.37481351051</v>
+        <v>4968.04420207855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.859777531565377</v>
+        <v>0.837511866871598</v>
       </c>
     </row>
     <row r="61">
@@ -1749,13 +1749,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="C61" t="n">
-        <v>4797.61245768074</v>
+        <v>5465.99445077653</v>
       </c>
       <c r="D61" t="n">
-        <v>1.87542256148877</v>
+        <v>7.13693715484059</v>
       </c>
     </row>
     <row r="62">
@@ -1763,13 +1763,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C62" t="n">
-        <v>5053.73588864408</v>
+        <v>5210.08232077318</v>
       </c>
       <c r="D62" t="n">
-        <v>0.801076539771903</v>
+        <v>3.565604036209</v>
       </c>
     </row>
     <row r="63">
@@ -1777,13 +1777,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C63" t="n">
-        <v>5417.08676893289</v>
+        <v>5163.56980054173</v>
       </c>
       <c r="D63" t="n">
-        <v>9.18706503867899</v>
+        <v>2.63112523830163</v>
       </c>
     </row>
     <row r="64">
@@ -1791,13 +1791,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="C64" t="n">
-        <v>5650.6228571714</v>
+        <v>5336.38266487561</v>
       </c>
       <c r="D64" t="n">
-        <v>6.33392242043941</v>
+        <v>7.13958997693789</v>
       </c>
     </row>
     <row r="65">
@@ -1805,13 +1805,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="C65" t="n">
-        <v>5347.76229176506</v>
+        <v>5154.5845361085</v>
       </c>
       <c r="D65" t="n">
-        <v>10.9088632557876</v>
+        <v>4.12733424492284</v>
       </c>
     </row>
     <row r="66">
@@ -1819,13 +1819,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="C66" t="n">
-        <v>5115.01144819441</v>
+        <v>5362.10515643381</v>
       </c>
       <c r="D66" t="n">
-        <v>4.2721347714884</v>
+        <v>9.68804017917448</v>
       </c>
     </row>
     <row r="67">
@@ -1833,13 +1833,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="C67" t="n">
-        <v>4915.71289276396</v>
+        <v>5369.29008164932</v>
       </c>
       <c r="D67" t="n">
-        <v>1.3659497020677</v>
+        <v>3.59085174458767</v>
       </c>
     </row>
     <row r="68">
@@ -1847,13 +1847,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C68" t="n">
-        <v>5210.08232077318</v>
+        <v>5214.23678662791</v>
       </c>
       <c r="D68" t="n">
-        <v>3.565604036209</v>
+        <v>6.05180615241981</v>
       </c>
     </row>
     <row r="69">
@@ -1861,13 +1861,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="C69" t="n">
-        <v>5485.55552262555</v>
+        <v>4763.82648481714</v>
       </c>
       <c r="D69" t="n">
-        <v>5.03602990046462</v>
+        <v>0.948260350144277</v>
       </c>
     </row>
     <row r="70">
@@ -1875,13 +1875,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C70" t="n">
-        <v>5166.07545396141</v>
+        <v>5233.59072646066</v>
       </c>
       <c r="D70" t="n">
-        <v>3.07309250015026</v>
+        <v>5.40801546928028</v>
       </c>
     </row>
     <row r="71">
@@ -1889,13 +1889,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="C71" t="n">
-        <v>4707.01901094811</v>
+        <v>4700.84708121115</v>
       </c>
       <c r="D71" t="n">
-        <v>1.69977390834451</v>
+        <v>1.50691042649533</v>
       </c>
     </row>
     <row r="72">
@@ -1903,13 +1903,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="C72" t="n">
-        <v>5503.04048090288</v>
+        <v>5437.04145286662</v>
       </c>
       <c r="D72" t="n">
-        <v>1.83997948842244</v>
+        <v>7.10780928897191</v>
       </c>
     </row>
     <row r="73">
@@ -1917,13 +1917,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="C73" t="n">
-        <v>5369.29008164932</v>
+        <v>5163.76344220592</v>
       </c>
       <c r="D73" t="n">
-        <v>3.59085174458767</v>
+        <v>4.14820511537436</v>
       </c>
     </row>
     <row r="74">
@@ -1931,13 +1931,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="C74" t="n">
-        <v>5025.14701875328</v>
+        <v>4707.01901094811</v>
       </c>
       <c r="D74" t="n">
-        <v>0.583928844233706</v>
+        <v>1.69977390834451</v>
       </c>
     </row>
     <row r="75">
@@ -1945,13 +1945,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="C75" t="n">
-        <v>5329.91872814323</v>
+        <v>5261.51742704296</v>
       </c>
       <c r="D75" t="n">
-        <v>8.5667306063834</v>
+        <v>2.17347124318623</v>
       </c>
     </row>
     <row r="76">
@@ -1959,13 +1959,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C76" t="n">
-        <v>5465.99445077653</v>
+        <v>4676.04968249666</v>
       </c>
       <c r="D76" t="n">
-        <v>7.13693715484059</v>
+        <v>0.842837130470715</v>
       </c>
     </row>
     <row r="77">
@@ -1973,13 +1973,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="C77" t="n">
-        <v>4944.57238722691</v>
+        <v>4915.71289276396</v>
       </c>
       <c r="D77" t="n">
-        <v>0.951072075165484</v>
+        <v>1.3659497020677</v>
       </c>
     </row>
     <row r="78">
@@ -1987,13 +1987,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="C78" t="n">
-        <v>4856.88135232017</v>
+        <v>4639.67000391251</v>
       </c>
       <c r="D78" t="n">
-        <v>1.45056924344797</v>
+        <v>1.22608659730195</v>
       </c>
     </row>
     <row r="79">
@@ -2001,13 +2001,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="C79" t="n">
-        <v>5147.98672121877</v>
+        <v>4956.2337761569</v>
       </c>
       <c r="D79" t="n">
-        <v>1.44102856146966</v>
+        <v>1.72353158890377</v>
       </c>
     </row>
     <row r="80">
@@ -2015,13 +2015,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C80" t="n">
-        <v>6241.9858251536</v>
+        <v>4921.22538989936</v>
       </c>
       <c r="D80" t="n">
-        <v>21.3254306944744</v>
+        <v>1.84286779929001</v>
       </c>
     </row>
     <row r="81">
@@ -2029,13 +2029,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C81" t="n">
-        <v>4667.42915166341</v>
+        <v>5156.32334339644</v>
       </c>
       <c r="D81" t="n">
-        <v>1.69421227776464</v>
+        <v>2.23499985508792</v>
       </c>
     </row>
     <row r="82">
@@ -2043,13 +2043,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="C82" t="n">
-        <v>4976.53459643581</v>
+        <v>5147.69036189553</v>
       </c>
       <c r="D82" t="n">
-        <v>1.02881865345867</v>
+        <v>3.77898077673358</v>
       </c>
     </row>
     <row r="83">
@@ -2057,13 +2057,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C83" t="n">
-        <v>5591.9034779086</v>
+        <v>5492.10578171807</v>
       </c>
       <c r="D83" t="n">
-        <v>9.66523394015207</v>
+        <v>8.54879670592239</v>
       </c>
     </row>
     <row r="84">
@@ -2071,13 +2071,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C84" t="n">
-        <v>5647.93935710332</v>
+        <v>4834.37481351051</v>
       </c>
       <c r="D84" t="n">
-        <v>2.13005753080417</v>
+        <v>0.859777531565377</v>
       </c>
     </row>
     <row r="85">
@@ -2085,13 +2085,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C85" t="n">
-        <v>5996.30028075466</v>
+        <v>5033.09849000153</v>
       </c>
       <c r="D85" t="n">
-        <v>9.84191309278241</v>
+        <v>3.34825474475285</v>
       </c>
     </row>
     <row r="86">
@@ -2099,13 +2099,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C86" t="n">
-        <v>4956.2337761569</v>
+        <v>5021.0485010177</v>
       </c>
       <c r="D86" t="n">
-        <v>1.72353158890377</v>
+        <v>3.03037780189022</v>
       </c>
     </row>
     <row r="87">
@@ -2113,13 +2113,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="C87" t="n">
-        <v>4812.43105427629</v>
+        <v>5015.67067898713</v>
       </c>
       <c r="D87" t="n">
-        <v>0.652398228516066</v>
+        <v>1.71864764383924</v>
       </c>
     </row>
     <row r="88">
@@ -2127,13 +2127,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C88" t="n">
-        <v>5243.94040388162</v>
+        <v>4856.88135232017</v>
       </c>
       <c r="D88" t="n">
-        <v>2.91904000233377</v>
+        <v>1.45056924344797</v>
       </c>
     </row>
     <row r="89">
@@ -2141,13 +2141,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C89" t="n">
-        <v>4921.22538989936</v>
+        <v>5166.07545396141</v>
       </c>
       <c r="D89" t="n">
-        <v>1.84286779929001</v>
+        <v>3.07309250015026</v>
       </c>
     </row>
     <row r="90">
@@ -2155,13 +2155,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C90" t="n">
-        <v>4832.0876770792</v>
+        <v>5070.44317820806</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34132779217015</v>
+        <v>1.51336960311951</v>
       </c>
     </row>
     <row r="91">
@@ -2169,13 +2169,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C91" t="n">
-        <v>5347.15273743846</v>
+        <v>4982.62127527098</v>
       </c>
       <c r="D91" t="n">
-        <v>4.55631552576823</v>
+        <v>2.82471490519042</v>
       </c>
     </row>
     <row r="92">
@@ -2183,13 +2183,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C92" t="n">
-        <v>5033.09849000153</v>
+        <v>5194.01958792835</v>
       </c>
       <c r="D92" t="n">
-        <v>3.34825474475285</v>
+        <v>7.87576902031409</v>
       </c>
     </row>
     <row r="93">
@@ -2197,13 +2197,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="C93" t="n">
-        <v>4847.91859239563</v>
+        <v>5006.2940774625</v>
       </c>
       <c r="D93" t="n">
-        <v>0.765039070147967</v>
+        <v>5.758936897301</v>
       </c>
     </row>
     <row r="94">
@@ -2211,13 +2211,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="C94" t="n">
-        <v>5424.58804340671</v>
+        <v>5591.9034779086</v>
       </c>
       <c r="D94" t="n">
-        <v>9.30212986708506</v>
+        <v>9.66523394015207</v>
       </c>
     </row>
     <row r="95">
@@ -2225,13 +2225,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C95" t="n">
-        <v>5243.88474410038</v>
+        <v>5210.66320182763</v>
       </c>
       <c r="D95" t="n">
-        <v>3.34569932161452</v>
+        <v>3.71643066167306</v>
       </c>
     </row>
     <row r="96">
@@ -2239,13 +2239,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C96" t="n">
-        <v>5135.05403659028</v>
+        <v>5699.6804538624</v>
       </c>
       <c r="D96" t="n">
-        <v>8.26016706144941</v>
+        <v>10.5740790638802</v>
       </c>
     </row>
     <row r="97">
@@ -2253,13 +2253,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C97" t="n">
-        <v>5398.35745359963</v>
+        <v>5015.46427851691</v>
       </c>
       <c r="D97" t="n">
-        <v>8.76603123674619</v>
+        <v>1.31737127058425</v>
       </c>
     </row>
     <row r="98">
@@ -2267,13 +2267,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C98" t="n">
-        <v>4918.93636640536</v>
+        <v>5247.83366738936</v>
       </c>
       <c r="D98" t="n">
-        <v>0.377910165175369</v>
+        <v>2.35137464257108</v>
       </c>
     </row>
     <row r="99">
@@ -2281,13 +2281,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C99" t="n">
-        <v>4880.32101442058</v>
+        <v>5140.23082176611</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09784264799068</v>
+        <v>4.04958891365822</v>
       </c>
     </row>
     <row r="100">
@@ -2295,13 +2295,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C100" t="n">
-        <v>4973.51713290226</v>
+        <v>5751.90478158848</v>
       </c>
       <c r="D100" t="n">
-        <v>1.5471398363113</v>
+        <v>9.37140347524455</v>
       </c>
     </row>
     <row r="101">
@@ -2309,13 +2309,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C101" t="n">
-        <v>4881.36543404625</v>
+        <v>4944.57238722691</v>
       </c>
       <c r="D101" t="n">
-        <v>1.60568834997127</v>
+        <v>0.951072075165484</v>
       </c>
     </row>
     <row r="102">
@@ -2323,13 +2323,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C102" t="n">
-        <v>5021.0485010177</v>
+        <v>5098.74902740985</v>
       </c>
       <c r="D102" t="n">
-        <v>3.03037780189022</v>
+        <v>5.17764083466907</v>
       </c>
     </row>
     <row r="103">
@@ -2337,13 +2337,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C103" t="n">
-        <v>5194.01958792835</v>
+        <v>4716.96666753311</v>
       </c>
       <c r="D103" t="n">
-        <v>7.87576902031409</v>
+        <v>1.65889737590338</v>
       </c>
     </row>
     <row r="104">
@@ -2351,13 +2351,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C104" t="n">
-        <v>5362.10515643381</v>
+        <v>5450.45380628964</v>
       </c>
       <c r="D104" t="n">
-        <v>9.68804017917448</v>
+        <v>9.86567660396932</v>
       </c>
     </row>
     <row r="105">
@@ -2365,13 +2365,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C105" t="n">
-        <v>5147.69036189553</v>
+        <v>4902.96305453738</v>
       </c>
       <c r="D105" t="n">
-        <v>3.77898077673358</v>
+        <v>1.32227853449587</v>
       </c>
     </row>
     <row r="106">
@@ -2379,13 +2379,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C106" t="n">
-        <v>4825.13970118001</v>
+        <v>5347.76229176506</v>
       </c>
       <c r="D106" t="n">
-        <v>1.64892655937879</v>
+        <v>10.9088632557876</v>
       </c>
     </row>
     <row r="107">
@@ -2393,13 +2393,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C107" t="n">
-        <v>5000.66242485165</v>
+        <v>4825.13970118001</v>
       </c>
       <c r="D107" t="n">
-        <v>2.97117919037173</v>
+        <v>1.64892655937879</v>
       </c>
     </row>
     <row r="108">
@@ -2407,13 +2407,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C108" t="n">
-        <v>5042.99365359507</v>
+        <v>5309.45153795408</v>
       </c>
       <c r="D108" t="n">
-        <v>2.48610038451178</v>
+        <v>7.34615998473908</v>
       </c>
     </row>
     <row r="109">
@@ -2421,13 +2421,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C109" t="n">
-        <v>5755.56666104006</v>
+        <v>5347.15273743846</v>
       </c>
       <c r="D109" t="n">
-        <v>7.02975465391587</v>
+        <v>4.55631552576823</v>
       </c>
     </row>
     <row r="110">
@@ -2435,13 +2435,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C110" t="n">
-        <v>5822.35318105932</v>
+        <v>6022.44612191462</v>
       </c>
       <c r="D110" t="n">
-        <v>16.2403429640884</v>
+        <v>23.155826621119</v>
       </c>
     </row>
     <row r="111">
@@ -2449,13 +2449,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C111" t="n">
-        <v>4877.72434882649</v>
+        <v>4955.41960156119</v>
       </c>
       <c r="D111" t="n">
-        <v>1.53252282649958</v>
+        <v>1.42040446028517</v>
       </c>
     </row>
     <row r="112">
@@ -2463,13 +2463,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C112" t="n">
-        <v>5070.51390252824</v>
+        <v>4857.70420853433</v>
       </c>
       <c r="D112" t="n">
-        <v>3.72507954974222</v>
+        <v>0.278242517414917</v>
       </c>
     </row>
     <row r="113">
@@ -2477,13 +2477,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C113" t="n">
-        <v>5437.04145286662</v>
+        <v>5076.56629043517</v>
       </c>
       <c r="D113" t="n">
-        <v>7.10780928897191</v>
+        <v>0.632717506284309</v>
       </c>
     </row>
     <row r="114">
@@ -2491,13 +2491,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C114" t="n">
-        <v>5070.44317820806</v>
+        <v>4925.80330732455</v>
       </c>
       <c r="D114" t="n">
-        <v>1.51336960311951</v>
+        <v>1.60202161841781</v>
       </c>
     </row>
     <row r="115">
@@ -2505,13 +2505,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C115" t="n">
-        <v>5411.98016097549</v>
+        <v>4545.70807348221</v>
       </c>
       <c r="D115" t="n">
-        <v>8.10737779729208</v>
+        <v>0.421531887282855</v>
       </c>
     </row>
     <row r="116">
@@ -2519,13 +2519,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C116" t="n">
-        <v>5309.45153795408</v>
+        <v>4899.91153730044</v>
       </c>
       <c r="D116" t="n">
-        <v>7.34615998473908</v>
+        <v>1.12668769015414</v>
       </c>
     </row>
     <row r="117">
@@ -2533,13 +2533,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="C117" t="n">
-        <v>5015.67067898713</v>
+        <v>5396.95397844472</v>
       </c>
       <c r="D117" t="n">
-        <v>1.71864764383924</v>
+        <v>2.43580630313402</v>
       </c>
     </row>
     <row r="118">
@@ -2547,13 +2547,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C118" t="n">
-        <v>5400.52995569282</v>
+        <v>4843.77609720983</v>
       </c>
       <c r="D118" t="n">
-        <v>1.87157678694782</v>
+        <v>0.894791587313166</v>
       </c>
     </row>
     <row r="119">
@@ -2561,13 +2561,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C119" t="n">
-        <v>4804.40139984615</v>
+        <v>4985.1032522358</v>
       </c>
       <c r="D119" t="n">
-        <v>0.989022983799165</v>
+        <v>1.97288663873661</v>
       </c>
     </row>
     <row r="120">
@@ -2575,13 +2575,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C120" t="n">
-        <v>5027.58450137962</v>
+        <v>4993.3412826446</v>
       </c>
       <c r="D120" t="n">
-        <v>1.21698619041939</v>
+        <v>3.00746790204421</v>
       </c>
     </row>
     <row r="121">
@@ -2589,13 +2589,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C121" t="n">
-        <v>4838.99656983696</v>
+        <v>4804.40139984615</v>
       </c>
       <c r="D121" t="n">
-        <v>1.61866497887873</v>
+        <v>0.989022983799165</v>
       </c>
     </row>
     <row r="122">
@@ -2603,7 +2603,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C122" t="n">
         <v>4974.09213966869</v>
@@ -2617,13 +2617,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C123" t="n">
-        <v>5177.00669253395</v>
+        <v>4910.29859998473</v>
       </c>
       <c r="D123" t="n">
-        <v>3.39474786096209</v>
+        <v>1.17759504120607</v>
       </c>
     </row>
     <row r="124">
@@ -2631,13 +2631,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C124" t="n">
-        <v>4625.66798510437</v>
+        <v>4812.43105427629</v>
       </c>
       <c r="D124" t="n">
-        <v>0.217954280376839</v>
+        <v>0.652398228516066</v>
       </c>
     </row>
     <row r="125">
@@ -2645,13 +2645,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C125" t="n">
-        <v>5072.08252892916</v>
+        <v>4847.91859239563</v>
       </c>
       <c r="D125" t="n">
-        <v>0.970216436159509</v>
+        <v>0.765039070147967</v>
       </c>
     </row>
     <row r="126">
@@ -2659,13 +2659,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C126" t="n">
-        <v>4700.84708121115</v>
+        <v>4857.09132051868</v>
       </c>
       <c r="D126" t="n">
-        <v>1.50691042649533</v>
+        <v>0.664516629132801</v>
       </c>
     </row>
     <row r="127">
@@ -2673,13 +2673,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C127" t="n">
-        <v>5590.04808896789</v>
+        <v>5650.6228571714</v>
       </c>
       <c r="D127" t="n">
-        <v>14.0810529034814</v>
+        <v>6.33392242043941</v>
       </c>
     </row>
     <row r="128">
@@ -2687,13 +2687,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C128" t="n">
-        <v>4968.04420207855</v>
+        <v>5233.84528493079</v>
       </c>
       <c r="D128" t="n">
-        <v>0.837511866871598</v>
+        <v>4.94799346540436</v>
       </c>
     </row>
     <row r="129">
@@ -2701,13 +2701,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C129" t="n">
-        <v>5450.45380628964</v>
+        <v>5194.01207867704</v>
       </c>
       <c r="D129" t="n">
-        <v>9.86567660396932</v>
+        <v>2.90067657053471</v>
       </c>
     </row>
     <row r="130">
@@ -2715,13 +2715,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C130" t="n">
-        <v>4883.91175204742</v>
+        <v>4870.48981699513</v>
       </c>
       <c r="D130" t="n">
-        <v>3.12144541957183</v>
+        <v>3.12855447477233</v>
       </c>
     </row>
     <row r="131">
@@ -2729,13 +2729,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C131" t="n">
-        <v>5163.76344220592</v>
+        <v>4707.88009378744</v>
       </c>
       <c r="D131" t="n">
-        <v>4.14820511537436</v>
+        <v>0.464516411748318</v>
       </c>
     </row>
     <row r="132">
@@ -2743,13 +2743,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C132" t="n">
-        <v>4843.77609720983</v>
+        <v>5090.17016436965</v>
       </c>
       <c r="D132" t="n">
-        <v>0.894791587313166</v>
+        <v>3.34025585709931</v>
       </c>
     </row>
     <row r="133">
@@ -2757,13 +2757,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C133" t="n">
-        <v>4847.86003515417</v>
+        <v>5005.58499750254</v>
       </c>
       <c r="D133" t="n">
-        <v>0.671245459541419</v>
+        <v>2.93927678128282</v>
       </c>
     </row>
     <row r="134">
@@ -2771,13 +2771,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C134" t="n">
-        <v>5210.7994921764</v>
+        <v>5004.03148485907</v>
       </c>
       <c r="D134" t="n">
-        <v>3.00828141533142</v>
+        <v>1.95433288245854</v>
       </c>
     </row>
     <row r="135">
@@ -2785,13 +2785,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C135" t="n">
-        <v>4806.18400998904</v>
+        <v>4976.53459643581</v>
       </c>
       <c r="D135" t="n">
-        <v>0.884509257024469</v>
+        <v>1.02881865345867</v>
       </c>
     </row>
     <row r="136">
@@ -2799,13 +2799,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C136" t="n">
-        <v>5156.32334339644</v>
+        <v>4806.18400998904</v>
       </c>
       <c r="D136" t="n">
-        <v>2.23499985508792</v>
+        <v>0.884509257024469</v>
       </c>
     </row>
     <row r="137">
@@ -2813,13 +2813,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C137" t="n">
-        <v>4843.17588320798</v>
+        <v>5107.18819256027</v>
       </c>
       <c r="D137" t="n">
-        <v>0.681598579589741</v>
+        <v>5.34876857051546</v>
       </c>
     </row>
     <row r="138">
@@ -2827,13 +2827,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C138" t="n">
-        <v>5247.83366738936</v>
+        <v>5068.25990846838</v>
       </c>
       <c r="D138" t="n">
-        <v>2.35137464257108</v>
+        <v>1.37530615955742</v>
       </c>
     </row>
     <row r="139">
@@ -2841,13 +2841,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C139" t="n">
-        <v>5140.23082176611</v>
+        <v>5025.14701875328</v>
       </c>
       <c r="D139" t="n">
-        <v>4.04958891365822</v>
+        <v>0.583928844233706</v>
       </c>
     </row>
     <row r="140">
@@ -2855,13 +2855,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C140" t="n">
-        <v>4986.72163944544</v>
+        <v>4843.17588320798</v>
       </c>
       <c r="D140" t="n">
-        <v>2.83749229451156</v>
+        <v>0.681598579589741</v>
       </c>
     </row>
     <row r="141">
@@ -2869,13 +2869,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C141" t="n">
-        <v>4821.84776257406</v>
+        <v>4881.36543404625</v>
       </c>
       <c r="D141" t="n">
-        <v>1.51716935552715</v>
+        <v>1.60568834997127</v>
       </c>
     </row>
     <row r="142">
@@ -2883,13 +2883,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C142" t="n">
-        <v>5105.26306244692</v>
+        <v>4877.72434882649</v>
       </c>
       <c r="D142" t="n">
-        <v>2.49912425924763</v>
+        <v>1.53252282649958</v>
       </c>
     </row>
     <row r="143">
@@ -2897,13 +2897,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C143" t="n">
-        <v>5117.03629097706</v>
+        <v>5132.98927232818</v>
       </c>
       <c r="D143" t="n">
-        <v>2.31058833809822</v>
+        <v>1.79990176375206</v>
       </c>
     </row>
     <row r="144">
@@ -2911,13 +2911,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C144" t="n">
-        <v>5240.71394786479</v>
+        <v>5070.51390252824</v>
       </c>
       <c r="D144" t="n">
-        <v>4.94538960808013</v>
+        <v>3.72507954974222</v>
       </c>
     </row>
     <row r="145">
@@ -2925,13 +2925,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C145" t="n">
-        <v>5163.56980054173</v>
+        <v>4832.0876770792</v>
       </c>
       <c r="D145" t="n">
-        <v>2.63112523830163</v>
+        <v>1.34132779217015</v>
       </c>
     </row>
     <row r="146">
@@ -2939,13 +2939,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C146" t="n">
-        <v>4911.26055604426</v>
+        <v>5507.25921800094</v>
       </c>
       <c r="D146" t="n">
-        <v>0.298927664697833</v>
+        <v>3.30707890142287</v>
       </c>
     </row>
     <row r="147">
@@ -2953,13 +2953,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C147" t="n">
-        <v>4982.62127527098</v>
+        <v>4986.72163944544</v>
       </c>
       <c r="D147" t="n">
-        <v>2.82471490519042</v>
+        <v>2.83749229451156</v>
       </c>
     </row>
     <row r="148">
@@ -2967,13 +2967,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C148" t="n">
-        <v>4985.1032522358</v>
+        <v>4972.11797926038</v>
       </c>
       <c r="D148" t="n">
-        <v>1.97288663873661</v>
+        <v>1.24651102055022</v>
       </c>
     </row>
     <row r="149">
@@ -2981,13 +2981,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C149" t="n">
-        <v>6182.20306981331</v>
+        <v>5413.39503409734</v>
       </c>
       <c r="D149" t="n">
-        <v>16.5115579445328</v>
+        <v>2.45739779107718</v>
       </c>
     </row>
     <row r="150">
@@ -2995,7 +2995,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C150" t="n">
         <v>5439.06588643261</v>
@@ -3009,13 +3009,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C151" t="n">
-        <v>5699.6804538624</v>
+        <v>4880.32101442058</v>
       </c>
       <c r="D151" t="n">
-        <v>10.5740790638802</v>
+        <v>1.09784264799068</v>
       </c>
     </row>
     <row r="152">
@@ -3023,13 +3023,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C152" t="n">
-        <v>5090.17016436965</v>
+        <v>5053.73588864408</v>
       </c>
       <c r="D152" t="n">
-        <v>3.34025585709931</v>
+        <v>0.801076539771903</v>
       </c>
     </row>
     <row r="153">
@@ -3037,13 +3037,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C153" t="n">
-        <v>5015.46427851691</v>
+        <v>4918.93636640536</v>
       </c>
       <c r="D153" t="n">
-        <v>1.31737127058425</v>
+        <v>0.377910165175369</v>
       </c>
     </row>
     <row r="154">
@@ -3051,13 +3051,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C154" t="n">
-        <v>5068.25990846838</v>
+        <v>4847.86003515417</v>
       </c>
       <c r="D154" t="n">
-        <v>1.37530615955742</v>
+        <v>0.671245459541419</v>
       </c>
     </row>
     <row r="155">
@@ -3065,13 +3065,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C155" t="n">
-        <v>4868.6734253314</v>
+        <v>5355.71257371746</v>
       </c>
       <c r="D155" t="n">
-        <v>1.2619150857883</v>
+        <v>5.47090413637235</v>
       </c>
     </row>
     <row r="156">
@@ -3079,13 +3079,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C156" t="n">
-        <v>5415.04008242332</v>
+        <v>5072.08252892916</v>
       </c>
       <c r="D156" t="n">
-        <v>6.9330453011913</v>
+        <v>0.970216436159509</v>
       </c>
     </row>
     <row r="157">
@@ -3093,13 +3093,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C157" t="n">
-        <v>5221.05804271815</v>
+        <v>4738.44288128018</v>
       </c>
       <c r="D157" t="n">
-        <v>1.2781767815078</v>
+        <v>0.277288193389379</v>
       </c>
     </row>
     <row r="158">
@@ -3107,13 +3107,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C158" t="n">
-        <v>4716.96666753311</v>
+        <v>5080.13127323127</v>
       </c>
       <c r="D158" t="n">
-        <v>1.65889737590338</v>
+        <v>1.66286411611359</v>
       </c>
     </row>
     <row r="159">
@@ -3121,13 +3121,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
-        <v>6022.44612191462</v>
+        <v>5755.56666104006</v>
       </c>
       <c r="D159" t="n">
-        <v>23.155826621119</v>
+        <v>7.02975465391587</v>
       </c>
     </row>
     <row r="160">
@@ -3135,13 +3135,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C160" t="n">
-        <v>4955.41960156119</v>
+        <v>5000.66242485165</v>
       </c>
       <c r="D160" t="n">
-        <v>1.42040446028517</v>
+        <v>2.97117919037173</v>
       </c>
     </row>
     <row r="161">
@@ -3149,13 +3149,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C161" t="n">
-        <v>5006.2940774625</v>
+        <v>4838.99656983696</v>
       </c>
       <c r="D161" t="n">
-        <v>5.758936897301</v>
+        <v>1.61866497887873</v>
       </c>
     </row>
     <row r="162">
@@ -3163,13 +3163,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C162" t="n">
-        <v>5237.91754606573</v>
+        <v>4868.6734253314</v>
       </c>
       <c r="D162" t="n">
-        <v>3.27330914576355</v>
+        <v>1.2619150857883</v>
       </c>
     </row>
     <row r="163">
@@ -3177,13 +3177,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C163" t="n">
-        <v>4738.44288128018</v>
+        <v>5415.04008242332</v>
       </c>
       <c r="D163" t="n">
-        <v>0.277288193389379</v>
+        <v>6.9330453011913</v>
       </c>
     </row>
     <row r="164">
@@ -3191,7 +3191,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C164" t="n">
         <v>5101.8944668146</v>
@@ -3205,13 +3205,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C165" t="n">
-        <v>4932.05464622055</v>
+        <v>5027.58450137962</v>
       </c>
       <c r="D165" t="n">
-        <v>1.86799580910316</v>
+        <v>1.21698619041939</v>
       </c>
     </row>
     <row r="166">
@@ -3219,13 +3219,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C166" t="n">
-        <v>5493.16490636218</v>
+        <v>5424.58804340671</v>
       </c>
       <c r="D166" t="n">
-        <v>13.8627035282299</v>
+        <v>9.30212986708506</v>
       </c>
     </row>
     <row r="167">
@@ -3233,13 +3233,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C167" t="n">
-        <v>4864.75294619969</v>
+        <v>5329.91872814323</v>
       </c>
       <c r="D167" t="n">
-        <v>0.622389902284938</v>
+        <v>8.5667306063834</v>
       </c>
     </row>
     <row r="168">
@@ -3247,13 +3247,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C168" t="n">
-        <v>6032.22064532053</v>
+        <v>5996.30028075466</v>
       </c>
       <c r="D168" t="n">
-        <v>21.3569991610843</v>
+        <v>9.84191309278241</v>
       </c>
     </row>
     <row r="169">
@@ -3261,13 +3261,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C169" t="n">
-        <v>5336.38266487561</v>
+        <v>5243.42530751257</v>
       </c>
       <c r="D169" t="n">
-        <v>7.13958997693789</v>
+        <v>4.0416275924057</v>
       </c>
     </row>
     <row r="170">
@@ -3275,13 +3275,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C170" t="n">
-        <v>4994.47984314684</v>
+        <v>4625.66798510437</v>
       </c>
       <c r="D170" t="n">
-        <v>1.25036738591492</v>
+        <v>0.217954280376839</v>
       </c>
     </row>
     <row r="171">
@@ -3289,13 +3289,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C171" t="n">
-        <v>5507.25921800094</v>
+        <v>4911.26055604426</v>
       </c>
       <c r="D171" t="n">
-        <v>3.30707890142287</v>
+        <v>0.298927664697833</v>
       </c>
     </row>
     <row r="172">
@@ -3303,13 +3303,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C172" t="n">
-        <v>4857.70420853433</v>
+        <v>5109.0931335186</v>
       </c>
       <c r="D172" t="n">
-        <v>0.278242517414917</v>
+        <v>2.1455412209208</v>
       </c>
     </row>
     <row r="173">
@@ -3317,13 +3317,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C173" t="n">
-        <v>5355.71257371746</v>
+        <v>5400.52995569282</v>
       </c>
       <c r="D173" t="n">
-        <v>5.47090413637235</v>
+        <v>1.87157678694782</v>
       </c>
     </row>
     <row r="174">
@@ -3331,13 +3331,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C174" t="n">
-        <v>5101.2421941146</v>
+        <v>5042.99365359507</v>
       </c>
       <c r="D174" t="n">
-        <v>5.17219126604696</v>
+        <v>2.48610038451178</v>
       </c>
     </row>
     <row r="175">
@@ -3345,13 +3345,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C175" t="n">
-        <v>4899.91153730044</v>
+        <v>5147.98672121877</v>
       </c>
       <c r="D175" t="n">
-        <v>1.12668769015414</v>
+        <v>1.44102856146966</v>
       </c>
     </row>
     <row r="176">
@@ -3359,13 +3359,13 @@
         <v>178</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C176" t="n">
-        <v>5413.39503409734</v>
+        <v>5485.55552262555</v>
       </c>
       <c r="D176" t="n">
-        <v>2.45739779107718</v>
+        <v>5.03602990046462</v>
       </c>
     </row>
     <row r="177">
@@ -3373,13 +3373,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C177" t="n">
-        <v>5066.69960260031</v>
+        <v>5243.94040388162</v>
       </c>
       <c r="D177" t="n">
-        <v>1.76282223684617</v>
+        <v>2.91904000233377</v>
       </c>
     </row>
     <row r="178">
@@ -3387,13 +3387,13 @@
         <v>180</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C178" t="n">
-        <v>5396.95397844472</v>
+        <v>5028.75370496434</v>
       </c>
       <c r="D178" t="n">
-        <v>2.43580630313402</v>
+        <v>0.794279887248014</v>
       </c>
     </row>
     <row r="179">
@@ -3401,13 +3401,13 @@
         <v>181</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>5590.20569744426</v>
+        <v>5647.93935710332</v>
       </c>
       <c r="D179" t="n">
-        <v>11.9852210894535</v>
+        <v>2.13005753080417</v>
       </c>
     </row>
     <row r="180">
@@ -3415,13 +3415,13 @@
         <v>182</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>4763.82648481714</v>
+        <v>6241.9858251536</v>
       </c>
       <c r="D180" t="n">
-        <v>0.948260350144277</v>
+        <v>21.3254306944744</v>
       </c>
     </row>
     <row r="181">
@@ -3429,13 +3429,13 @@
         <v>183</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>5028.75370496434</v>
+        <v>4821.84776257406</v>
       </c>
       <c r="D181" t="n">
-        <v>0.794279887248014</v>
+        <v>1.51716935552715</v>
       </c>
     </row>
     <row r="182">
@@ -3446,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>5107.18819256027</v>
+        <v>5503.04048090288</v>
       </c>
       <c r="D182" t="n">
-        <v>5.34876857051546</v>
+        <v>1.83997948842244</v>
       </c>
     </row>
     <row r="183">
@@ -3460,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>4993.3412826446</v>
+        <v>5243.88474410038</v>
       </c>
       <c r="D183" t="n">
-        <v>3.00746790204421</v>
+        <v>3.34569932161452</v>
       </c>
     </row>
     <row r="184">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>5154.5845361085</v>
+        <v>5221.05804271815</v>
       </c>
       <c r="D184" t="n">
-        <v>4.12733424492284</v>
+        <v>1.2781767815078</v>
       </c>
     </row>
   </sheetData>
